--- a/biology/Botanique/Square_Georges-Sarre/Square_Georges-Sarre.xlsx
+++ b/biology/Botanique/Square_Georges-Sarre/Square_Georges-Sarre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Georges-Sarre (anciennement square Jean-Aicard) est un espace vert du 11e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square occupe la partie centrale de l'avenue Jean-Aicard, dans le 11e arrondissement de Paris.
 Le square, qui occupe le terre-plein central de l'avenue, est de forme rectangulaire et mesure au total 1 850 m2. Il est composé de trois espaces : au nord, près de la rue Oberkampf, il comporte un terrain de pétanque. Au sud, près de la rue des Bluets, il abrite un espace de jeux pour enfants. La partie centrale est un square ordinaire.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de l'ancien maire du 11e arrondissement et ministre Georges Sarre (1935-2019) par décision du Conseil de Paris[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de l'ancien maire du 11e arrondissement et ministre Georges Sarre (1935-2019) par décision du Conseil de Paris.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 1964. 
 </t>
